--- a/data/upload/gastos_ganhos_exemplo_rand.xlsx
+++ b/data/upload/gastos_ganhos_exemplo_rand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf74230c79564c54/github/orcamento_app/data/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_7FA8321C815F0EBF6D7D38955A5DCE3A67C5055F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D0035EA-FA47-4361-B3A3-AEF994D2ABAB}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_7FA8321C815F0EBF6D7D38955A5DCE3A67C5055F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{838443A4-3EAE-43AB-96FE-282287956368}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,8 +329,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -358,8 +366,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,22 +672,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J69"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -702,14 +716,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>45799</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -728,14 +742,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>45525</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
@@ -754,14 +768,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>45741</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
@@ -780,14 +794,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>45740</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -806,14 +820,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>45794</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
@@ -831,15 +845,16 @@
       <c r="I6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>45568</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
@@ -858,14 +873,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>45744</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
@@ -883,15 +898,16 @@
       <c r="I8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>45557</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
@@ -910,14 +926,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>45820</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
@@ -936,14 +952,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>45552</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
@@ -962,14 +978,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>45598</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
@@ -988,14 +1004,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>45835</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
@@ -1014,14 +1030,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>45584</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
@@ -1040,14 +1056,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>45706</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D15" t="s">
@@ -1066,14 +1082,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>45687</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
@@ -1096,10 +1112,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>45775</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
@@ -1122,10 +1138,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>45652</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D18" t="s">
@@ -1148,10 +1164,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>45780</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
@@ -1174,10 +1190,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>45583</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D20" t="s">
@@ -1200,10 +1216,10 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>45681</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D21" t="s">
@@ -1226,10 +1242,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>45677</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
@@ -1252,10 +1268,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>45571</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D23" t="s">
@@ -1278,10 +1294,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>45845</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D24" t="s">
@@ -1304,10 +1320,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>45656</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D25" t="s">
@@ -1330,10 +1346,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>45629</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D26" t="s">
@@ -1356,10 +1372,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>45540</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D27" t="s">
@@ -1382,10 +1398,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>45657</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
@@ -1408,10 +1424,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>45765</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
@@ -1434,10 +1450,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>45788</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D30" t="s">
@@ -1460,10 +1476,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>45717</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
@@ -1486,10 +1502,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>45834</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D32" t="s">
@@ -1512,10 +1528,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>45732</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D33" t="s">
@@ -1538,10 +1554,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>45614</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D34" t="s">
@@ -1564,10 +1580,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>45819</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D35" t="s">
@@ -1590,10 +1606,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>45690</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D36" t="s">
@@ -1616,10 +1632,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>45850</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D37" t="s">
@@ -1642,10 +1658,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>45686</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D38" t="s">
@@ -1668,10 +1684,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>45742</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D39" t="s">
@@ -1694,10 +1710,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>45803</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
@@ -1720,10 +1736,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>45758</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D41" t="s">
@@ -1746,10 +1762,10 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>45587</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D42" t="s">
@@ -1772,10 +1788,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>45878</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D43" t="s">
@@ -1798,10 +1814,10 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>45783</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D44" t="s">
@@ -1824,10 +1840,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>45740</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D45" t="s">
@@ -1850,10 +1866,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>45674</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D46" t="s">
@@ -1876,10 +1892,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>45611</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D47" t="s">
@@ -1902,10 +1918,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>45747</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D48" t="s">
@@ -1928,10 +1944,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>45811</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D49" t="s">
@@ -1954,10 +1970,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>45614</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D50" t="s">
@@ -1980,10 +1996,10 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>45875</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D51" t="s">
@@ -2006,10 +2022,10 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>45768</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D52" t="s">
@@ -2032,10 +2048,10 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>45728</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D53" t="s">
@@ -2058,10 +2074,10 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>45783</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D54" t="s">
@@ -2084,10 +2100,10 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>45631</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D55" t="s">
@@ -2110,10 +2126,10 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>45846</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D56" t="s">
@@ -2136,10 +2152,10 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>45676</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D57" t="s">
@@ -2162,10 +2178,10 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>45769</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D58" t="s">
@@ -2188,10 +2204,10 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>45606</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D59" t="s">
@@ -2214,10 +2230,10 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>45848</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D60" t="s">
@@ -2240,10 +2256,10 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>45539</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D61" t="s">
@@ -2266,10 +2282,10 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>45648</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D62" t="s">
@@ -2292,10 +2308,10 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>45612</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D63" t="s">
@@ -2318,10 +2334,10 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>45858</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D64" t="s">
@@ -2344,10 +2360,10 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>45554</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D65" t="s">
@@ -2370,10 +2386,10 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>45546</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D66" t="s">
@@ -2396,10 +2412,10 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>45682</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D67" t="s">
@@ -2422,10 +2438,10 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>45837</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D68" t="s">
@@ -2448,10 +2464,10 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>45647</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D69" t="s">

--- a/data/upload/gastos_ganhos_exemplo_rand.xlsx
+++ b/data/upload/gastos_ganhos_exemplo_rand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf74230c79564c54/github/orcamento_app/data/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_7FA8321C815F0EBF6D7D38955A5DCE3A67C5055F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{838443A4-3EAE-43AB-96FE-282287956368}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_7FA8321C815F0EBF6D7D38955A5DCE3A67C5055F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C42BB80-C108-4C5E-85E1-D8B86CC39F68}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,6 +329,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,10 +369,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,13 +679,13 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -691,7 +695,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -723,7 +727,7 @@
       <c r="B2" s="1">
         <v>45799</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -749,7 +753,7 @@
       <c r="B3" s="1">
         <v>45525</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
@@ -775,7 +779,7 @@
       <c r="B4" s="1">
         <v>45741</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
@@ -801,7 +805,7 @@
       <c r="B5" s="1">
         <v>45740</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -827,7 +831,7 @@
       <c r="B6" s="1">
         <v>45794</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
@@ -854,7 +858,7 @@
       <c r="B7" s="1">
         <v>45568</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
@@ -880,7 +884,7 @@
       <c r="B8" s="1">
         <v>45744</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
@@ -907,7 +911,7 @@
       <c r="B9" s="1">
         <v>45557</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
@@ -933,7 +937,7 @@
       <c r="B10" s="1">
         <v>45820</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
@@ -959,7 +963,7 @@
       <c r="B11" s="1">
         <v>45552</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
@@ -985,7 +989,7 @@
       <c r="B12" s="1">
         <v>45598</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
@@ -1011,7 +1015,7 @@
       <c r="B13" s="1">
         <v>45835</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
@@ -1037,7 +1041,7 @@
       <c r="B14" s="1">
         <v>45584</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
@@ -1063,7 +1067,7 @@
       <c r="B15" s="1">
         <v>45706</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D15" t="s">
@@ -1089,7 +1093,7 @@
       <c r="B16" s="1">
         <v>45687</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
@@ -1115,7 +1119,7 @@
       <c r="B17" s="1">
         <v>45775</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
@@ -1141,7 +1145,7 @@
       <c r="B18" s="1">
         <v>45652</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D18" t="s">
@@ -1167,7 +1171,7 @@
       <c r="B19" s="1">
         <v>45780</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
@@ -1193,7 +1197,7 @@
       <c r="B20" s="1">
         <v>45583</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D20" t="s">
@@ -1219,7 +1223,7 @@
       <c r="B21" s="1">
         <v>45681</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D21" t="s">
@@ -1245,7 +1249,7 @@
       <c r="B22" s="1">
         <v>45677</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
@@ -1271,7 +1275,7 @@
       <c r="B23" s="1">
         <v>45571</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D23" t="s">
@@ -1297,7 +1301,7 @@
       <c r="B24" s="1">
         <v>45845</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D24" t="s">
@@ -1323,7 +1327,7 @@
       <c r="B25" s="1">
         <v>45656</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D25" t="s">
@@ -1349,7 +1353,7 @@
       <c r="B26" s="1">
         <v>45629</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D26" t="s">
@@ -1375,7 +1379,7 @@
       <c r="B27" s="1">
         <v>45540</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D27" t="s">
@@ -1401,7 +1405,7 @@
       <c r="B28" s="1">
         <v>45657</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
@@ -1427,7 +1431,7 @@
       <c r="B29" s="1">
         <v>45765</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
@@ -1453,7 +1457,7 @@
       <c r="B30" s="1">
         <v>45788</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D30" t="s">
@@ -1479,7 +1483,7 @@
       <c r="B31" s="1">
         <v>45717</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
@@ -1505,7 +1509,7 @@
       <c r="B32" s="1">
         <v>45834</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D32" t="s">
@@ -1531,7 +1535,7 @@
       <c r="B33" s="1">
         <v>45732</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D33" t="s">
@@ -1557,7 +1561,7 @@
       <c r="B34" s="1">
         <v>45614</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D34" t="s">
@@ -1583,7 +1587,7 @@
       <c r="B35" s="1">
         <v>45819</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D35" t="s">
@@ -1609,7 +1613,7 @@
       <c r="B36" s="1">
         <v>45690</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D36" t="s">
@@ -1635,7 +1639,7 @@
       <c r="B37" s="1">
         <v>45850</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D37" t="s">
@@ -1661,7 +1665,7 @@
       <c r="B38" s="1">
         <v>45686</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D38" t="s">
@@ -1687,7 +1691,7 @@
       <c r="B39" s="1">
         <v>45742</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D39" t="s">
@@ -1713,7 +1717,7 @@
       <c r="B40" s="1">
         <v>45803</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
@@ -1739,7 +1743,7 @@
       <c r="B41" s="1">
         <v>45758</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D41" t="s">
@@ -1765,7 +1769,7 @@
       <c r="B42" s="1">
         <v>45587</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D42" t="s">
@@ -1791,7 +1795,7 @@
       <c r="B43" s="1">
         <v>45878</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D43" t="s">
@@ -1817,7 +1821,7 @@
       <c r="B44" s="1">
         <v>45783</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D44" t="s">
@@ -1843,7 +1847,7 @@
       <c r="B45" s="1">
         <v>45740</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D45" t="s">
@@ -1869,7 +1873,7 @@
       <c r="B46" s="1">
         <v>45674</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D46" t="s">
@@ -1895,7 +1899,7 @@
       <c r="B47" s="1">
         <v>45611</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D47" t="s">
@@ -1921,7 +1925,7 @@
       <c r="B48" s="1">
         <v>45747</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D48" t="s">
@@ -1947,7 +1951,7 @@
       <c r="B49" s="1">
         <v>45811</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D49" t="s">
@@ -1973,7 +1977,7 @@
       <c r="B50" s="1">
         <v>45614</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D50" t="s">
@@ -1999,7 +2003,7 @@
       <c r="B51" s="1">
         <v>45875</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D51" t="s">
@@ -2025,7 +2029,7 @@
       <c r="B52" s="1">
         <v>45768</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D52" t="s">
@@ -2051,7 +2055,7 @@
       <c r="B53" s="1">
         <v>45728</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D53" t="s">
@@ -2077,7 +2081,7 @@
       <c r="B54" s="1">
         <v>45783</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D54" t="s">
@@ -2103,7 +2107,7 @@
       <c r="B55" s="1">
         <v>45631</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D55" t="s">
@@ -2129,7 +2133,7 @@
       <c r="B56" s="1">
         <v>45846</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D56" t="s">
@@ -2155,7 +2159,7 @@
       <c r="B57" s="1">
         <v>45676</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D57" t="s">
@@ -2181,7 +2185,7 @@
       <c r="B58" s="1">
         <v>45769</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D58" t="s">
@@ -2207,7 +2211,7 @@
       <c r="B59" s="1">
         <v>45606</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D59" t="s">
@@ -2233,7 +2237,7 @@
       <c r="B60" s="1">
         <v>45848</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D60" t="s">
@@ -2259,7 +2263,7 @@
       <c r="B61" s="1">
         <v>45539</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D61" t="s">
@@ -2285,7 +2289,7 @@
       <c r="B62" s="1">
         <v>45648</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D62" t="s">
@@ -2311,7 +2315,7 @@
       <c r="B63" s="1">
         <v>45612</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D63" t="s">
@@ -2337,7 +2341,7 @@
       <c r="B64" s="1">
         <v>45858</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D64" t="s">
@@ -2363,7 +2367,7 @@
       <c r="B65" s="1">
         <v>45554</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D65" t="s">
@@ -2389,7 +2393,7 @@
       <c r="B66" s="1">
         <v>45546</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D66" t="s">
@@ -2415,7 +2419,7 @@
       <c r="B67" s="1">
         <v>45682</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D67" t="s">
@@ -2441,7 +2445,7 @@
       <c r="B68" s="1">
         <v>45837</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D68" t="s">
@@ -2467,7 +2471,7 @@
       <c r="B69" s="1">
         <v>45647</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D69" t="s">
